--- a/set_up_grasp_models/tests/test_files/test_io/model_with_PPP.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_io/model_with_PPP.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,684 +31,597 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="226">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>PPG_copy</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>glc_D_p</t>
-  </si>
-  <si>
-    <t>h2o_p</t>
-  </si>
-  <si>
-    <t>glc_D</t>
-  </si>
-  <si>
-    <t>adp</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>atp</t>
-  </si>
-  <si>
-    <t>g6p</t>
-  </si>
-  <si>
-    <t>nadp</t>
-  </si>
-  <si>
-    <t>o_6pgl</t>
-  </si>
-  <si>
-    <t>nadph</t>
-  </si>
-  <si>
-    <t>h2o</t>
-  </si>
-  <si>
-    <t>o_6pgc</t>
-  </si>
-  <si>
-    <t>glcn_p</t>
-  </si>
-  <si>
-    <t>h_p</t>
-  </si>
-  <si>
-    <t>glcn</t>
-  </si>
-  <si>
-    <t>q8_c</t>
-  </si>
-  <si>
-    <t>q8h2_c</t>
-  </si>
-  <si>
-    <t>fad</t>
-  </si>
-  <si>
-    <t>fadh2</t>
-  </si>
-  <si>
-    <t>o_2dhglcn_p</t>
-  </si>
-  <si>
-    <t>o_2dhglcn</t>
-  </si>
-  <si>
-    <t>o_6p2dhglcn</t>
-  </si>
-  <si>
-    <t>nadh</t>
-  </si>
-  <si>
-    <t>nad</t>
-  </si>
-  <si>
-    <t>o_2ddg6p</t>
-  </si>
-  <si>
-    <t>g3p</t>
-  </si>
-  <si>
-    <t>pyr</t>
-  </si>
-  <si>
-    <t>f6p</t>
-  </si>
-  <si>
-    <t>fdp</t>
-  </si>
-  <si>
-    <t>glyc3p</t>
-  </si>
-  <si>
-    <t>o_13dpg</t>
-  </si>
-  <si>
-    <t>o_3pg</t>
-  </si>
-  <si>
-    <t>o_2pg</t>
-  </si>
-  <si>
-    <t>pep</t>
-  </si>
-  <si>
-    <t>glc_D_ex</t>
-  </si>
-  <si>
-    <t>pyr_ex</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>ru5p_D</t>
-  </si>
-  <si>
-    <t>o_3pg_ex</t>
-  </si>
-  <si>
-    <t>pep_ex</t>
-  </si>
-  <si>
-    <t>g6p_ex</t>
-  </si>
-  <si>
-    <t>f6p_ex</t>
-  </si>
-  <si>
-    <t>g3p_ex</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>GLK</t>
-  </si>
-  <si>
-    <t>ZWF</t>
-  </si>
-  <si>
-    <t>PGL</t>
-  </si>
-  <si>
-    <t>GNTP</t>
-  </si>
-  <si>
-    <t>GNUK</t>
-  </si>
-  <si>
-    <t>GCD</t>
-  </si>
-  <si>
-    <t>GAD</t>
-  </si>
-  <si>
-    <t>KGUT</t>
-  </si>
-  <si>
-    <t>KGUK</t>
-  </si>
-  <si>
-    <t>KGUD</t>
-  </si>
-  <si>
-    <t>EDD</t>
-  </si>
-  <si>
-    <t>EDA</t>
-  </si>
-  <si>
-    <t>PGI</t>
-  </si>
-  <si>
-    <t>FBP</t>
-  </si>
-  <si>
-    <t>FBA</t>
-  </si>
-  <si>
-    <t>TPIA</t>
-  </si>
-  <si>
-    <t>GAP</t>
-  </si>
-  <si>
-    <t>PGK</t>
-  </si>
-  <si>
-    <t>GPML</t>
-  </si>
-  <si>
-    <t>ENO</t>
-  </si>
-  <si>
-    <t>PYK</t>
-  </si>
-  <si>
-    <t>OPRB</t>
-  </si>
-  <si>
-    <t>PYR_EX</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>O_3PG_EX</t>
-  </si>
-  <si>
-    <t>PEP_EX</t>
-  </si>
-  <si>
-    <t>G6P_EX</t>
-  </si>
-  <si>
-    <t>F6P_EX</t>
-  </si>
-  <si>
-    <t>G3P_EX</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>alpha D-glucose periplasm</t>
-  </si>
-  <si>
-    <t>water periplasm</t>
-  </si>
-  <si>
-    <t>alpha D-glucose</t>
-  </si>
-  <si>
-    <t>proton</t>
-  </si>
-  <si>
-    <t>phosphate</t>
-  </si>
-  <si>
-    <t>alpha D-glucose 6 phosphate</t>
-  </si>
-  <si>
-    <t>nicotinamide adenine dinucleotide phosphate</t>
-  </si>
-  <si>
-    <t>6-phospho D-glucono-1,5-lactone</t>
-  </si>
-  <si>
-    <t>nicotinamide adenine dinucleotide phosphate - reduced</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>D-gluconate 6 P</t>
-  </si>
-  <si>
-    <t>D-gluconate periplasm</t>
-  </si>
-  <si>
-    <t>proton periplasm</t>
-  </si>
-  <si>
-    <t>D-gluconate</t>
-  </si>
-  <si>
-    <t>ubiquinone-8</t>
-  </si>
-  <si>
-    <t>ubiquinol-8</t>
-  </si>
-  <si>
-    <t>Flavin adenine dinucleotide oxidized</t>
-  </si>
-  <si>
-    <t>Flavin adenine dinucleotide reduced</t>
-  </si>
-  <si>
-    <t>2-keto-D-gluconate periplasm</t>
-  </si>
-  <si>
-    <t>2-keto-D-gluconate</t>
-  </si>
-  <si>
-    <t>2-dehydro-6-phospho-D-gluconate</t>
-  </si>
-  <si>
-    <t>nicotinamide adenine dinucleotide - reduced</t>
-  </si>
-  <si>
-    <t>nicotinamide adenine dinucleotide</t>
-  </si>
-  <si>
-    <t>2-dehydro-3-deoxy-D-gluconate 6-phosphate</t>
-  </si>
-  <si>
-    <t>D-glyceraldehyde 3-phosphate</t>
-  </si>
-  <si>
-    <t>pyruvate</t>
-  </si>
-  <si>
-    <t>b-D-fructofuranose 6-phosphate</t>
-  </si>
-  <si>
-    <t>b-D-fructose 1,6-bisphosphate</t>
-  </si>
-  <si>
-    <t>DHAP // glycerone phosphate</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glyceroyl-phosphate</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glycerate</t>
-  </si>
-  <si>
-    <t>2-phospho-D-glycerate</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate</t>
-  </si>
-  <si>
-    <t>alpha D-glucose extracellular</t>
-  </si>
-  <si>
-    <t>pyruvate consuption by TCA cycle</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
-  </si>
-  <si>
-    <t>ribulose-5-phosphate</t>
-  </si>
-  <si>
-    <t>o_3pg-ex</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glycerate consumption in carbon metabolism</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate consumption in carbon metabolism</t>
-  </si>
-  <si>
-    <t>consumption of glucose-6-phosphate by cabon metabolism</t>
-  </si>
-  <si>
-    <t>consumption of fructose-6-phosphate by pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>consumption of D-glyceraldehyde 3-phosphate by pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>ABC transport system</t>
-  </si>
-  <si>
-    <t>Glucokinase</t>
-  </si>
-  <si>
-    <t>Glucose-6-P 1 dehydrogenase</t>
-  </si>
-  <si>
-    <t>6-Phosphogluconolactonase</t>
-  </si>
-  <si>
-    <t>Gluconate transporter</t>
-  </si>
-  <si>
-    <t>Gluconate kinase</t>
-  </si>
-  <si>
-    <t>Glucose dehydrogenase</t>
-  </si>
-  <si>
-    <t>Gluconate 2 -dehydrogenase</t>
-  </si>
-  <si>
-    <t>2-Ketogluconate transporter</t>
-  </si>
-  <si>
-    <t>2-ketogluconokinase</t>
-  </si>
-  <si>
-    <t>2-ketogluconate-6-P reductase</t>
-  </si>
-  <si>
-    <t>6-Phosphogluconate dehydratase</t>
-  </si>
-  <si>
-    <t>2-Keto-3-deoxy-6-phosphogluconate</t>
-  </si>
-  <si>
-    <t>Glucose-6-P-isomerase</t>
-  </si>
-  <si>
-    <t>Fructose-1,6-biphosphatase</t>
-  </si>
-  <si>
-    <t>Fructose-1,6-P2 aldolase</t>
-  </si>
-  <si>
-    <t>Triose phosphate isomerase</t>
-  </si>
-  <si>
-    <t>Glyceraldehyde-3-P dehydrogenase</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate kinase</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate mutase</t>
-  </si>
-  <si>
-    <t>Phosphopuruvate hydratase</t>
-  </si>
-  <si>
-    <t>Pruvate kinase</t>
-  </si>
-  <si>
-    <t>Glucose porine, transport to the periplasm</t>
-  </si>
-  <si>
-    <t>pyruvate consuption in tricarboxylic acid cycle</t>
-  </si>
-  <si>
-    <t>6-phosphogluconate dehydrogenase</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>mets</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>general glucose binding and transport, hidrolisis of ATP, release of glucose</t>
-  </si>
-  <si>
-    <t>orderedBiBi assumed</t>
-  </si>
-  <si>
-    <t>In pseudomonas fluorescens, ZWF pdf lots of inhibitors//negative effectors</t>
-  </si>
-  <si>
-    <t>UniUni</t>
-  </si>
-  <si>
-    <t>modelled as competitiveInhibitionUniUni     CREATE RANDOM, ORDERED ASSUMED randomBiBirapidequilibrium,,,,,,,Data from Zymomonas mobilis</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>Data form E.coli, permease, modelled as massAction</t>
-  </si>
-  <si>
-    <t>randomBiBi</t>
-  </si>
-  <si>
-    <t>modelled as randomBiBiCompInhib    o_6pgc is also a COMPETITIVE inhibitor, Sequential (probably random) order of the addition of the substrates,</t>
-  </si>
-  <si>
-    <t>pingPong</t>
-  </si>
-  <si>
-    <t>putida 1 subunit, no inhibition in monomeric enzime, other data from Acinetobacter calcoaceticus--&gt; glucose has competitive inhibition in acinetobacter (2 subunits)</t>
-  </si>
-  <si>
-    <t>possible piruvate competitive inhibition Only subunits and inhibitors, info from pseudomonas fluorescens. Only one catalytic unit, but 3 subunits in overall</t>
-  </si>
-  <si>
-    <t>permease,modelled as massAction</t>
-  </si>
-  <si>
-    <t>NO DATA, orderedBiBi assumed</t>
-  </si>
-  <si>
-    <t>pseudomonas C., ATP inhibits when NAD is used as coenzime, is competitive to NAD but not to  2-dehydro-6-phospho-D-gluconate</t>
-  </si>
-  <si>
-    <t>Data from Zymomonas mobilis, mechanism pseudomonas fluorescens: 6-phosphogluconate is dehydrated to enol-2-keto-3-deoxy-6-phosphogluconate which spontaneusly ketonizes</t>
-  </si>
-  <si>
-    <t>randomUniBi</t>
-  </si>
-  <si>
-    <t>class I aldolase mechanism, schiff base mechanism</t>
-  </si>
-  <si>
-    <t>Modelled as noncompetitiveInhibitionUniUni Data from E.coli</t>
-  </si>
-  <si>
-    <t>CREATE RANDOMBIUNI, ASSUMED ORDERED, Data from E.coli, inhibit by amp</t>
-  </si>
-  <si>
-    <t>orderedBiUni</t>
-  </si>
-  <si>
-    <t>General mechanism, data from p.aeuroginosa</t>
-  </si>
-  <si>
-    <t>Data from E.coli</t>
-  </si>
-  <si>
-    <t>Modelled as randomBiBicompinhi   Data from E.coli, NAD, G3P, P and release of o_13dpg + NADH, could also be random</t>
-  </si>
-  <si>
-    <t>Assumed orderedBiBi Data from Pseudomonas sp and Sacharomices cerevisiae inhib by SO42-2</t>
-  </si>
-  <si>
-    <t>Data from Bacillus</t>
-  </si>
-  <si>
-    <t>Data from Saccharomyces</t>
-  </si>
-  <si>
-    <t>More inhibitors, positive effector amp</t>
-  </si>
-  <si>
-    <t>modelled as massAction, maybe diffusion</t>
-  </si>
-  <si>
-    <t>modelled as massAction</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="197">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPG_copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glc_D_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glc_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g6p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_6pgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_6pgc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glcn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q8_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fadh2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_2dhglcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_2dhglcn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_6p2dhglcn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_2ddg6p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glyc3p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_13dpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_3pg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_2pg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glc_D_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyr_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru5p_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_3pg_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pep_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g6p_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6p_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g3p_ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYR_EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O_3PG_EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEP_EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6P_EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F6P_EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3P_EX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha D-glucose periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha D-glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha D-glucose 6 phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicotinamide adenine dinucleotide phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho D-glucono-1,5-lactone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicotinamide adenine dinucleotide phosphate - reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate 6 P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proton periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquinone-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquinol-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavin adenine dinucleotide oxidized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavin adenine dinucleotide reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-keto-D-gluconate periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-keto-D-gluconate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-dehydro-6-phospho-D-gluconate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicotinamide adenine dinucleotide - reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicotinamide adenine dinucleotide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-dehydro-3-deoxy-D-gluconate 6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glyceraldehyde 3-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b-D-fructofuranose 6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b-D-fructose 1,6-bisphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHAP // glycerone phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glyceroyl-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glycerate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-phospho-D-glycerate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha D-glucose extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate consuption by TCA cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribulose-5-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o_3pg-ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glycerate consumption in carbon metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate consumption in carbon metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption of glucose-6-phosphate by cabon metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption of fructose-6-phosphate by pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumption of D-glyceraldehyde 3-phosphate by pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC transport system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-P 1 dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Phosphogluconolactonase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluconate transporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluconate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluconate 2 -dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Ketogluconate transporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-ketogluconokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-ketogluconate-6-P reductase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Phosphogluconate dehydratase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Keto-3-deoxy-6-phosphogluconate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-P-isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-1,6-biphosphatase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-1,6-P2 aldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triose phosphate isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyceraldehyde-3-P dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate mutase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphopuruvate hydratase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruvate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose porine, transport to the periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate consuption in tricarboxylic acid cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phosphogluconate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingPong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiUni</t>
   </si>
 </sst>
 </file>
@@ -717,7 +629,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00E+00"/>
@@ -867,7 +779,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -921,6 +833,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,15 +935,15 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.1619433198381"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,7 +1058,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1155,38 +1071,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="13" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1194,34 +1100,28 @@
       <c r="A2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="13" t="n">
-        <v>630</v>
-      </c>
-      <c r="C2" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" s="13" t="n">
-        <v>630</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <v>40</v>
+      <c r="B2" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="13" t="n">
-        <v>630</v>
-      </c>
-      <c r="C3" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" s="13" t="n">
-        <v>630</v>
-      </c>
-      <c r="E3" s="13" t="n">
-        <v>40</v>
+      <c r="B3" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,16 +1129,13 @@
         <v>64</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1170</v>
+        <v>0.99</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,16 +1143,13 @@
         <v>65</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1170</v>
+        <v>0.99</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,16 +1157,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4790</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,16 +1171,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4790</v>
+        <v>0.99</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,16 +1185,13 @@
         <v>68</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5510</v>
+        <v>0.99</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,16 +1199,13 @@
         <v>69</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>720</v>
+        <v>0.99</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>60</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,16 +1213,13 @@
         <v>70</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>720</v>
+        <v>0.99</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>60</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,16 +1227,13 @@
         <v>71</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>720</v>
+        <v>0.99</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>60</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,16 +1241,13 @@
         <v>72</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>720</v>
+        <v>0.99</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>60</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,16 +1255,13 @@
         <v>73</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>6110</v>
+        <v>0.99</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,16 +1269,13 @@
         <v>74</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>6110</v>
+        <v>0.99</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,16 +1283,13 @@
         <v>75</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>570</v>
+        <v>0.99</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,16 +1297,13 @@
         <v>76</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>460</v>
+        <v>0.99</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,16 +1311,13 @@
         <v>77</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>460</v>
+        <v>0.99</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,16 +1325,13 @@
         <v>78</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C18" s="13" t="n">
-        <v>30</v>
+        <v>0.99</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E18" s="13" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,16 +1339,13 @@
         <v>79</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C19" s="13" t="n">
-        <v>100</v>
+        <v>0.99</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E19" s="13" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,16 +1353,13 @@
         <v>80</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C20" s="13" t="n">
-        <v>100</v>
+        <v>0.99</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E20" s="13" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,16 +1367,13 @@
         <v>81</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>4360</v>
+        <v>0.99</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,16 +1381,13 @@
         <v>82</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>4360</v>
+        <v>0.99</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,16 +1395,13 @@
         <v>83</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3890</v>
+        <v>0.99</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>80</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,16 +1409,13 @@
         <v>84</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>6140</v>
+        <v>0.99</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>80</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,16 +1423,13 @@
         <v>85</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>10000</v>
+        <v>0.99</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>120</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,16 +1437,13 @@
         <v>86</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>30</v>
+        <v>0.99</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="E26" s="13" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,16 +1451,13 @@
         <v>87</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>750</v>
+        <v>0.99</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,16 +1465,13 @@
         <v>88</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>470</v>
+        <v>0.99</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,16 +1479,13 @@
         <v>89</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>30</v>
+        <v>0.99</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,16 +1493,13 @@
         <v>90</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>110</v>
+        <v>0.99</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,16 +1507,13 @@
         <v>91</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>80</v>
+        <v>0.99</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,7 +1522,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1719,15 +1535,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O57" activeCellId="0" sqref="O57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,18 +1551,18 @@
         <v>179</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1760,7 +1576,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1774,7 +1590,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1788,7 +1604,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1802,7 +1618,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1816,7 +1632,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1830,7 +1646,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1844,7 +1660,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1858,7 +1674,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1872,7 +1688,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1883,10 +1699,11 @@
       <c r="D11" s="0" t="n">
         <v>1.01</v>
       </c>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1900,7 +1717,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1914,7 +1731,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1928,7 +1745,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1942,7 +1759,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1956,7 +1773,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1970,7 +1787,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1984,7 +1801,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1998,7 +1815,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2012,7 +1829,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2026,7 +1843,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2040,7 +1857,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2053,8 +1870,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
+      <c r="A24" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -2067,8 +1884,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
+      <c r="A25" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -2081,8 +1898,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
+      <c r="A26" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2095,8 +1912,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
+      <c r="A27" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2109,8 +1926,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
+      <c r="A28" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -2123,8 +1940,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
+      <c r="A29" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -2137,8 +1954,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
+      <c r="A30" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -2151,8 +1968,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
+      <c r="A31" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -2165,12 +1982,206 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1.01</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2183,1260 +2194,506 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O57" activeCellId="0" sqref="O57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="996" min="9" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="997" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="K32" s="13"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3451,14 +2708,14 @@
   </sheetPr>
   <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AO2" activeCellId="0" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7715,7 +6972,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7728,20 +6985,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>92</v>
       </c>
@@ -7751,65 +7009,41 @@
       <c r="C1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -7819,48 +7053,30 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
@@ -7870,647 +7086,419 @@
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="C41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C45" s="13" t="n">
         <v>0</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8523,466 +7511,375 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C24" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C26" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C31" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8995,179 +7892,246 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>92</v>
+      <c r="A1" s="16" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
+      <c r="A24" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
+      <c r="A25" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
+      <c r="A26" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
+      <c r="A27" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
+      <c r="A28" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
+      <c r="A29" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
+      <c r="A30" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
+      <c r="A31" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9182,18 +8146,18 @@
   </sheetPr>
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>168</v>
+      <c r="A1" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9393,7 +8357,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9419,7 +8383,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9432,246 +8396,372 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>168</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>18</v>
+        <v>62</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>-16.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>-17.6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C6" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>-3.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>-94.4</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>-81.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="B10" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C10" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>-0.699999999999999</v>
+      </c>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>28</v>
+        <v>72</v>
+      </c>
+      <c r="B12" s="13" t="n">
+        <v>-24.7</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <v>-16.9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>-48.2</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="B16" s="13" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>33</v>
+        <v>77</v>
+      </c>
+      <c r="B17" s="13" t="n">
+        <v>-25</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>-18.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>34</v>
+        <v>78</v>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="C18" s="13" t="n">
+        <v>-4.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>35</v>
+        <v>79</v>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="13" t="n">
+        <v>8.6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>36</v>
+        <v>80</v>
+      </c>
+      <c r="B20" s="13" t="n">
+        <v>-19.4</v>
+      </c>
+      <c r="C20" s="13" t="n">
+        <v>-17.6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>37</v>
+        <v>81</v>
+      </c>
+      <c r="B21" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C21" s="13" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>38</v>
+        <v>82</v>
+      </c>
+      <c r="B22" s="13" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="C22" s="13" t="n">
+        <v>-3.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>39</v>
+        <v>83</v>
+      </c>
+      <c r="B23" s="13" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="C23" s="13" t="n">
+        <v>-26.9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
+      <c r="A24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C24" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>41</v>
+      <c r="A25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
+      <c r="A26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>43</v>
+      <c r="A27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C27" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
+      <c r="A28" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C28" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
+      <c r="A29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C29" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
+      <c r="A30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C30" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>47</v>
+      <c r="A31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C31" s="13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9684,372 +8774,525 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="6" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="0" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C2" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.0539766903533074</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.120624642980026</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="13" t="n">
-        <v>-18.2</v>
-      </c>
-      <c r="C3" s="13" t="n">
-        <v>-16.4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C3" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="13" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="C4" s="13" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0539766903533074</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.120624642980026</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>-24.2</v>
-      </c>
-      <c r="C5" s="13" t="n">
-        <v>-17.6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.00130928935389267</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.00187904397944066</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="B6" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="13" t="n">
-        <v>-16.5</v>
-      </c>
-      <c r="C7" s="13" t="n">
-        <v>-3.7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C7" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="13" t="n">
-        <v>-94.4</v>
-      </c>
-      <c r="C8" s="13" t="n">
-        <v>-81.8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.000971072093115796</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.00128926124021754</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="13" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.0451480964017751</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.0612242369315582</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.000413395666425941</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.000889271000240726</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="13" t="n">
-        <v>-14.5</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>-0.699999999999999</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.000103328408614969</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.000317671591385031</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="13" t="n">
-        <v>-24.7</v>
-      </c>
-      <c r="C12" s="13" t="n">
-        <v>-16.9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3.11611131672015E-005</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>4.61722201661318E-005</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="13" t="n">
-        <v>-48.2</v>
-      </c>
-      <c r="C13" s="13" t="n">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="13" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C14" s="13" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5.9E-005</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>6.2E-005</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C15" s="13" t="n">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3.14831939084441E-005</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.000109183472758223</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="13" t="n">
-        <v>-12.8</v>
-      </c>
-      <c r="C16" s="13" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="B16" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C16" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="13" t="n">
-        <v>-25</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>-18.8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3.14831939084441E-005</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.000109183472758223</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="13" t="n">
-        <v>-6.6</v>
-      </c>
-      <c r="C18" s="13" t="n">
-        <v>-4.4</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="B18" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C18" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" s="13" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="B19" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C19" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="13" t="n">
-        <v>-19.4</v>
-      </c>
-      <c r="C20" s="13" t="n">
-        <v>-17.6</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="B20" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C20" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C21" s="13" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="B21" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C21" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="13" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="C22" s="13" t="n">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.000506</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.0370673973626544</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="13" t="n">
-        <v>-28.5</v>
-      </c>
-      <c r="C23" s="13" t="n">
-        <v>-26.9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C24" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C25" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C27" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C28" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C29" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C31" s="13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.000506</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.0370673973626544</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C24" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C25" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C26" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C27" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.000179154198782279</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.000270512467884388</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.000682750695042058</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.00165191597162461</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.00216206037479565</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.00253927295853768</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.000451320562097482</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.00149534610456918</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.000218796558730073</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.000329870107936593</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C33" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.000494390704696427</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.00103660929530357</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1.62212685139124E-005</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>4.21120648194209E-005</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>9.15909611938057E-006</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2.01742372139528E-005</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C38" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C39" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C40" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C41" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C42" s="18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C43" s="18" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C44" s="18" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="18" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C45" s="18" t="n">
+        <v>0.001</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10062,929 +9305,371 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S6" activeCellId="0" sqref="S6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="13" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="O1" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.0539766903533074</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.120624642980026</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0.0539766903533074</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0.120624642980026</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>630</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C3" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q3" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>630</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0539766903533074</v>
+        <v>1170</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.120624642980026</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0.0539766903533074</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0.120624642980026</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.00130928935389267</v>
+        <v>1170</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.00187904397944066</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="O5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0.00130928935389267</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0.00187904397944066</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C6" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q6" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C7" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q7" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.000971072093115796</v>
+        <v>5510</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.00128926124021754</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>0.000971072093115796</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0.00128926124021754</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.0451480964017751</v>
+        <v>720</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.0612242369315582</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>0.0451480964017751</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0.0612242369315582</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.000413395666425941</v>
+        <v>720</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.000889271000240726</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>0.000413395666425941</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0.000889271000240726</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.000103328408614969</v>
+        <v>720</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.000317671591385031</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0.000103328408614969</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0.000317671591385031</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3.11611131672015E-005</v>
+        <v>720</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>4.61722201661318E-005</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>3.11611131672015E-005</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>4.61722201661318E-005</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C13" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q13" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>5.9E-005</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>6.2E-005</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="O14" s="11" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P14" s="0" t="n">
-        <v>5.9E-005</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>6.2E-005</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>3.14831939084441E-005</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.000109183472758223</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>3.14831939084441E-005</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0.000109183472758223</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C16" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q16" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>3.14831939084441E-005</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0.000109183472758223</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>3.14831939084441E-005</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0.000109183472758223</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C18" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q18" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C18" s="13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C19" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q19" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="C19" s="13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C20" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q20" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="C20" s="13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C21" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q21" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.000506</v>
+        <v>4360</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.0370673973626544</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>0.000506</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0.0370673973626544</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.000506</v>
+        <v>3890</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.0370673973626544</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>0.000506</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>0.0370673973626544</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C24" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q24" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C25" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P25" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q25" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C26" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P26" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q26" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C27" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q27" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>6140</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.000179154198782279</v>
+        <v>470</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.000270512467884388</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>0.000179154198782279</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>0.000270512467884388</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.000682750695042058</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.00165191597162461</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>0.000682750695042058</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>0.00165191597162461</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.00216206037479565</v>
+        <v>110</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.00253927295853768</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="O30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P30" s="0" t="n">
-        <v>0.00216206037479565</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>0.00253927295853768</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.000451320562097482</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.00149534610456918</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>0.000451320562097482</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>0.00149534610456918</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.000218796558730073</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.000329870107936593</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>0.000218796558730073</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>0.000329870107936593</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C33" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P33" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q33" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.000494390704696427</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0.00103660929530357</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>0.000494390704696427</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>0.00103660929530357</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1.62212685139124E-005</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>4.21120648194209E-005</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" s="0" t="n">
-        <v>1.62212685139124E-005</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>4.21120648194209E-005</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>9.15909611938057E-006</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>2.01742372139528E-005</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>9.15909611938057E-006</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>2.01742372139528E-005</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C38" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q38" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C39" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P39" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q39" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C40" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P40" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q40" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C41" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="P41" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q41" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C42" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P42" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q42" s="17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C43" s="17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P43" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q43" s="17" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C44" s="17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P44" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q44" s="17" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C45" s="17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P45" s="17" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="Q45" s="17" t="n">
-        <v>0.001</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/set_up_grasp_models/tests/test_files/test_io/model_with_PPP.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_io/model_with_PPP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="199">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -39,28 +39,43 @@
     <t xml:space="preserve">Model name</t>
   </si>
   <si>
-    <t xml:space="preserve">PPG_copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">PPG_only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of particles</t>
+    <t xml:space="preserve">Number of models</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
@@ -69,19 +84,10 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
   </si>
   <si>
     <t xml:space="preserve">rxn ID</t>
@@ -549,37 +555,37 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">mets</t>
   </si>
   <si>
-    <t xml:space="preserve">reaction ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">kinetic mechanism</t>
   </si>
   <si>
-    <t xml:space="preserve">order</t>
+    <t xml:space="preserve">subtrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
   </si>
   <si>
     <t xml:space="preserve">promiscuous</t>
@@ -628,13 +634,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -656,21 +660,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -705,30 +694,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -779,56 +750,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -836,226 +775,166 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF70AD47"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="10" t="n">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1067,38 +946,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>62</v>
+      <c r="A2" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1111,8 +987,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
+      <c r="A3" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1125,8 +1001,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
+      <c r="A4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1139,8 +1015,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>65</v>
+      <c r="A5" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1153,8 +1029,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>66</v>
+      <c r="A6" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1167,8 +1043,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>67</v>
+      <c r="A7" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1181,8 +1057,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>68</v>
+      <c r="A8" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1195,8 +1071,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>69</v>
+      <c r="A9" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1209,8 +1085,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
+      <c r="A10" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1223,8 +1099,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>71</v>
+      <c r="A11" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1237,8 +1113,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>72</v>
+      <c r="A12" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1251,8 +1127,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>73</v>
+      <c r="A13" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1265,8 +1141,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>74</v>
+      <c r="A14" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1279,8 +1155,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>75</v>
+      <c r="A15" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1293,8 +1169,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>76</v>
+      <c r="A16" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1307,8 +1183,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>77</v>
+      <c r="A17" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1321,8 +1197,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>78</v>
+      <c r="A18" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1335,8 +1211,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>79</v>
+      <c r="A19" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1349,8 +1225,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>80</v>
+      <c r="A20" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1363,8 +1239,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>81</v>
+      <c r="A21" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1377,8 +1253,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>82</v>
+      <c r="A22" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1391,8 +1267,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>83</v>
+      <c r="A23" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1405,8 +1281,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
+      <c r="A24" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1419,8 +1295,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
+      <c r="A25" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1433,8 +1309,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
+      <c r="A26" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1447,8 +1323,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
+      <c r="A27" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -1461,8 +1337,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
+      <c r="A28" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -1475,8 +1351,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
+      <c r="A29" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -1489,8 +1365,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
+      <c r="A30" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -1503,8 +1379,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
+      <c r="A31" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -1517,7 +1393,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1531,38 +1407,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O57" activeCellId="0" sqref="O57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>178</v>
+      <c r="D1" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1575,8 +1448,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1589,8 +1462,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1603,8 +1476,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1617,8 +1490,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1631,8 +1504,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1645,8 +1518,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1659,8 +1532,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1673,8 +1546,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1687,8 +1560,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1699,11 +1572,11 @@
       <c r="D11" s="0" t="n">
         <v>1.01</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1716,8 +1589,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1730,8 +1603,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1744,8 +1617,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1758,8 +1631,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1772,8 +1645,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1786,8 +1659,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1800,8 +1673,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1814,8 +1687,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1828,8 +1701,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1842,8 +1715,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1856,8 +1729,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1870,8 +1743,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1884,8 +1757,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1898,8 +1771,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1912,8 +1785,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -1926,8 +1799,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -1940,8 +1813,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -1954,8 +1827,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -1968,8 +1841,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -1982,8 +1855,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -1996,8 +1869,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -2010,8 +1883,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -2024,8 +1897,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -2036,11 +1909,11 @@
       <c r="D35" s="0" t="n">
         <v>1.01</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -2053,8 +1926,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
+      <c r="A37" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -2067,8 +1940,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>54</v>
+      <c r="A38" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -2081,8 +1954,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>55</v>
+      <c r="A39" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -2095,8 +1968,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>56</v>
+      <c r="A40" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -2109,8 +1982,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>132</v>
+      <c r="A41" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -2123,8 +1996,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>58</v>
+      <c r="A42" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -2137,8 +2010,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>59</v>
+      <c r="A43" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -2151,8 +2024,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>60</v>
+      <c r="A44" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -2165,8 +2038,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
+      <c r="A45" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2190,505 +2063,507 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="996" min="9" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="997" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="998" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>62</v>
+      <c r="A2" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
+      <c r="A3" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
+      <c r="A4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>65</v>
+      <c r="A5" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>66</v>
+      <c r="A6" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
+      <c r="A25" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
+      <c r="A26" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
+      <c r="A27" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
+      <c r="A28" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
+      <c r="A29" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
+      <c r="A30" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
+      <c r="A31" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2702,163 +2577,162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AO2" activeCellId="0" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="U1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="Y1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AA1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AB1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AG1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AH1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AK1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AL1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AM1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AN1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AO1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AP1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" s="12"/>
+      <c r="AR1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>62</v>
+      <c r="A2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -2994,8 +2868,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>63</v>
+      <c r="A3" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3131,8 +3005,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>64</v>
+      <c r="A4" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -3268,8 +3142,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>65</v>
+      <c r="A5" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -3405,8 +3279,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>66</v>
+      <c r="A6" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -3542,8 +3416,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>67</v>
+      <c r="A7" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -3679,8 +3553,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>68</v>
+      <c r="A8" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-1</v>
@@ -3816,8 +3690,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>69</v>
+      <c r="A9" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -3953,8 +3827,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>70</v>
+      <c r="A10" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -4090,8 +3964,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>71</v>
+      <c r="A11" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -4227,8 +4101,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>72</v>
+      <c r="A12" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -4364,8 +4238,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>73</v>
+      <c r="A13" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -4501,8 +4375,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>74</v>
+      <c r="A14" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -4638,8 +4512,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>75</v>
+      <c r="A15" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -4728,7 +4602,7 @@
       <c r="AD15" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AF15" s="0" t="n">
@@ -4775,8 +4649,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>76</v>
+      <c r="A16" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -4912,8 +4786,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>77</v>
+      <c r="A17" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -5049,8 +4923,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>78</v>
+      <c r="A18" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -5186,8 +5060,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>79</v>
+      <c r="A19" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -5323,8 +5197,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>80</v>
+      <c r="A20" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -5460,8 +5334,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>81</v>
+      <c r="A21" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -5597,8 +5471,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>82</v>
+      <c r="A22" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -5734,8 +5608,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>83</v>
+      <c r="A23" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -5871,8 +5745,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
+      <c r="A24" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
@@ -6008,8 +5882,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
+      <c r="A25" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -6145,8 +6019,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
+      <c r="A26" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -6282,8 +6156,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
+      <c r="A27" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -6419,8 +6293,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
+      <c r="A28" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -6556,8 +6430,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
+      <c r="A29" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -6693,8 +6567,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
+      <c r="A30" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -6830,8 +6704,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
+      <c r="A31" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -6967,7 +6841,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6981,7 +6855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6991,507 +6865,506 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>125</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
+      <c r="A37" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>54</v>
+      <c r="A38" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="13" t="n">
+        <v>131</v>
+      </c>
+      <c r="C38" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>55</v>
+      <c r="A39" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="13" t="n">
+        <v>132</v>
+      </c>
+      <c r="C39" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>56</v>
+      <c r="A40" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="13" t="n">
+        <v>133</v>
+      </c>
+      <c r="C40" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>132</v>
+      <c r="A41" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="13" t="n">
+        <v>135</v>
+      </c>
+      <c r="C41" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>58</v>
+      <c r="A42" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="13" t="n">
+        <v>136</v>
+      </c>
+      <c r="C42" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="13" t="n">
+      <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="13" t="n">
+      <c r="A44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="13" t="n">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7507,7 +7380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7517,364 +7390,362 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C30" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="13" t="n">
+      <c r="C31" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7888,7 +7759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7898,234 +7769,231 @@
       <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>166</v>
+      <c r="A1" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
+      <c r="A37" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>54</v>
+      <c r="A38" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>55</v>
+      <c r="A39" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>56</v>
+      <c r="A40" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>132</v>
+      <c r="A41" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>58</v>
+      <c r="A42" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>59</v>
+      <c r="A43" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>60</v>
+      <c r="A44" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
+      <c r="A45" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8140,7 +8008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8150,234 +8018,231 @@
       <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
+      <c r="A16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>34</v>
+      <c r="A18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>35</v>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>36</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
+      <c r="A24" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>41</v>
+      <c r="A25" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
+      <c r="A26" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>43</v>
+      <c r="A27" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
+      <c r="A33" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
+      <c r="A37" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>54</v>
+      <c r="A38" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>55</v>
+      <c r="A39" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>56</v>
+      <c r="A40" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>132</v>
+      <c r="A41" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>58</v>
+      <c r="A42" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>59</v>
+      <c r="A43" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>60</v>
+      <c r="A44" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
+      <c r="A45" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8392,7 +8257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8402,361 +8267,359 @@
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="13" t="n">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="13" t="n">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>-18.2</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="5" t="n">
         <v>-16.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="13" t="n">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>-4.9</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="5" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="13" t="n">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>-24.2</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="5" t="n">
         <v>-17.6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="13" t="n">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="13" t="n">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>-16.5</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="5" t="n">
         <v>-3.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="13" t="n">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <v>-94.4</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="5" t="n">
         <v>-81.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="13" t="n">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>-4.9</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="5" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="13" t="n">
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="13" t="n">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="5" t="n">
         <v>-14.5</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="5" t="n">
         <v>-0.699999999999999</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="13" t="n">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>-24.7</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="5" t="n">
         <v>-16.9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="13" t="n">
+      <c r="A13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5" t="n">
         <v>-48.2</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="5" t="n">
         <v>-38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="13" t="n">
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="5" t="n">
         <v>11.4</v>
       </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="5" t="n">
         <v>19.6</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="13" t="n">
+      <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="5" t="n">
         <v>-1.7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="n">
         <v>-12.8</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="5" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="13" t="n">
+      <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <v>-25</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="5" t="n">
         <v>-18.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="13" t="n">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <v>-6.6</v>
       </c>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="5" t="n">
         <v>-4.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="13" t="n">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C19" s="13" t="n">
+      <c r="C19" s="5" t="n">
         <v>8.6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="13" t="n">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <v>-19.4</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="5" t="n">
         <v>-17.6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="13" t="n">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>3.5</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="5" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="13" t="n">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <v>-4.7</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="5" t="n">
         <v>-3.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="13" t="n">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="5" t="n">
         <v>-28.5</v>
       </c>
-      <c r="C23" s="13" t="n">
+      <c r="C23" s="5" t="n">
         <v>-26.9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="13" t="n">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="13" t="n">
+      <c r="A25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C25" s="13" t="n">
+      <c r="C25" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="13" t="n">
+      <c r="A26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="5" t="n">
         <v>4.9</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="5" t="n">
         <v>17.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="13" t="n">
+      <c r="A27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C27" s="13" t="n">
+      <c r="C27" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="13" t="n">
+      <c r="A28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="13" t="n">
+      <c r="A29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C29" s="13" t="n">
+      <c r="C29" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="13" t="n">
+      <c r="A30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C30" s="13" t="n">
+      <c r="C30" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="13" t="n">
+      <c r="A31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="C31" s="13" t="n">
+      <c r="C31" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8770,7 +8633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8780,31 +8643,28 @@
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="6" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.0539766903533074</v>
@@ -8814,19 +8674,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="18" t="n">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0539766903533074</v>
@@ -8836,8 +8696,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.00130928935389267</v>
@@ -8845,33 +8705,33 @@
       <c r="C5" s="0" t="n">
         <v>0.00187904397944066</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="18" t="n">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C6" s="18" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="18" t="n">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.000971072093115796</v>
@@ -8881,8 +8741,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.0451480964017751</v>
@@ -8892,8 +8752,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.000413395666425941</v>
@@ -8903,8 +8763,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.000103328408614969</v>
@@ -8914,8 +8774,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3.11611131672015E-005</v>
@@ -8925,19 +8785,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="18" t="n">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>5.9E-005</v>
@@ -8945,11 +8805,11 @@
       <c r="C14" s="0" t="n">
         <v>6.2E-005</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3.14831939084441E-005</v>
@@ -8959,19 +8819,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="18" t="n">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3.14831939084441E-005</v>
@@ -8981,52 +8841,52 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="18" t="n">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="18" t="n">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="18" t="n">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="18" t="n">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.000506</v>
@@ -9036,8 +8896,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>39</v>
+      <c r="A23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.000506</v>
@@ -9047,52 +8907,52 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="18" t="n">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C24" s="18" t="n">
+      <c r="C24" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="18" t="n">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C25" s="18" t="n">
+      <c r="C25" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="18" t="n">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C26" s="18" t="n">
+      <c r="C26" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="18" t="n">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C27" s="18" t="n">
+      <c r="C27" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.000179154198782279</v>
@@ -9102,8 +8962,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
+      <c r="A29" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.000682750695042058</v>
@@ -9113,8 +8973,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
+      <c r="A30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.00216206037479565</v>
@@ -9122,11 +8982,11 @@
       <c r="C30" s="0" t="n">
         <v>0.00253927295853768</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.000451320562097482</v>
@@ -9136,8 +8996,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
+      <c r="A32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.000218796558730073</v>
@@ -9147,19 +9007,19 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="18" t="n">
+      <c r="A33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C33" s="18" t="n">
+      <c r="C33" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>50</v>
+      <c r="A34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.000494390704696427</v>
@@ -9169,8 +9029,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
+      <c r="A35" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1.62212685139124E-005</v>
@@ -9180,8 +9040,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>52</v>
+      <c r="A36" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>9.15909611938057E-006</v>
@@ -9191,10 +9051,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="18" t="n">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="10" t="n">
         <v>0.001</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -9202,90 +9062,90 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="18" t="n">
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C38" s="18" t="n">
+      <c r="C38" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="18" t="n">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C39" s="18" t="n">
+      <c r="C39" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="18" t="n">
+      <c r="A40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C40" s="18" t="n">
+      <c r="C40" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="18" t="n">
+      <c r="A41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C41" s="18" t="n">
+      <c r="C41" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="18" t="n">
+      <c r="A42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C42" s="18" t="n">
+      <c r="C42" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="18" t="n">
+      <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C43" s="18" t="n">
+      <c r="C43" s="10" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="18" t="n">
+      <c r="A44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C44" s="18" t="n">
+      <c r="C44" s="10" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="18" t="n">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="10" t="n">
         <v>1E-012</v>
       </c>
-      <c r="C45" s="18" t="n">
+      <c r="C45" s="10" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -9301,63 +9161,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="13" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="13" t="n">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>630</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="5" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="13" t="n">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>630</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="5" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
+      <c r="A4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1170</v>
@@ -9367,8 +9224,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>65</v>
+      <c r="A5" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1170</v>
@@ -9378,8 +9235,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>66</v>
+      <c r="A6" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4790</v>
@@ -9389,8 +9246,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>67</v>
+      <c r="A7" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4790</v>
@@ -9400,8 +9257,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>68</v>
+      <c r="A8" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>5510</v>
@@ -9411,8 +9268,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>69</v>
+      <c r="A9" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>720</v>
@@ -9422,8 +9279,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
+      <c r="A10" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>720</v>
@@ -9433,8 +9290,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>71</v>
+      <c r="A11" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>720</v>
@@ -9444,8 +9301,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>72</v>
+      <c r="A12" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>720</v>
@@ -9455,8 +9312,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>73</v>
+      <c r="A13" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>6110</v>
@@ -9466,8 +9323,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>74</v>
+      <c r="A14" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>6110</v>
@@ -9477,8 +9334,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>75</v>
+      <c r="A15" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>570</v>
@@ -9488,8 +9345,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>76</v>
+      <c r="A16" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>460</v>
@@ -9499,8 +9356,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>77</v>
+      <c r="A17" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>460</v>
@@ -9510,41 +9367,41 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>78</v>
+      <c r="A18" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="5" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>79</v>
+      <c r="A19" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5110</v>
       </c>
-      <c r="C19" s="13" t="n">
+      <c r="C19" s="5" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>80</v>
+      <c r="A20" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>5110</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="5" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>81</v>
+      <c r="A21" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>4360</v>
@@ -9554,8 +9411,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>82</v>
+      <c r="A22" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>4360</v>
@@ -9565,8 +9422,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>83</v>
+      <c r="A23" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3890</v>
@@ -9576,8 +9433,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>84</v>
+      <c r="A24" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6140</v>
@@ -9587,8 +9444,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>85</v>
+      <c r="A25" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>10000</v>
@@ -9598,19 +9455,19 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>86</v>
+      <c r="A26" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>570</v>
       </c>
-      <c r="C26" s="13" t="n">
+      <c r="C26" s="5" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>87</v>
+      <c r="A27" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>750</v>
@@ -9620,8 +9477,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
+      <c r="A28" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>470</v>
@@ -9631,8 +9488,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>89</v>
+      <c r="A29" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -9642,8 +9499,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>90</v>
+      <c r="A30" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>110</v>
@@ -9653,8 +9510,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
+      <c r="A31" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>80</v>
@@ -9664,7 +9521,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
